--- a/HeroGoKart/Document/道具音效.xlsx
+++ b/HeroGoKart/Document/道具音效.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitLibrary\HeroGoKart\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABCDCC0-7D05-4A1D-8EEC-56219C1E20DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="761" yWindow="761" windowWidth="19562" windowHeight="10256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,14 +295,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,148 +321,19 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,188 +346,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -664,255 +355,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -928,62 +377,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -997,7 +473,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1241,19 +717,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
@@ -1263,7 +739,7 @@
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="3:6">
+    <row r="1" spans="1:6" ht="24.45" x14ac:dyDescent="0.15">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +749,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1287,7 +763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1301,7 +777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1315,7 +791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1329,7 +805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1339,22 +815,22 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1368,7 +844,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1382,7 +858,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1396,7 +872,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1406,11 +882,11 @@
       <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1424,18 +900,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1446,7 +922,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1456,11 +932,11 @@
       <c r="C15" t="s">
         <v>50</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -1474,7 +950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" ht="27" spans="1:4">
+    <row r="17" spans="1:6" ht="25.85" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1484,11 +960,11 @@
       <c r="C17" t="s">
         <v>57</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -1498,11 +974,11 @@
       <c r="C18" t="s">
         <v>57</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -1513,7 +989,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -1523,11 +999,11 @@
       <c r="C20" t="s">
         <v>66</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -1541,7 +1017,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -1561,7 +1037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -1575,7 +1051,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -1592,7 +1068,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="3:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
         <v>82</v>
       </c>
@@ -1606,7 +1082,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="3:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
         <v>83</v>
       </c>
@@ -1620,23 +1096,23 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="3:4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
         <v>84</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="3:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
         <v>86</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="3:4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -1644,7 +1120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="3:4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
         <v>7</v>
       </c>
@@ -1652,7 +1128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="3:5">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
         <v>88</v>
       </c>
@@ -1663,7 +1139,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="3:4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
         <v>24</v>
       </c>
@@ -1671,7 +1147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="3:4">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
         <v>28</v>
       </c>
@@ -1679,7 +1155,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="3:4">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
         <v>60</v>
       </c>
@@ -1687,7 +1163,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="3:4">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C35" t="s">
         <v>69</v>
       </c>
@@ -1695,7 +1171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="3:4">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C36" t="s">
         <v>73</v>
       </c>
@@ -1704,7 +1180,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HeroGoKart/Document/道具音效.xlsx
+++ b/HeroGoKart/Document/道具音效.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitLibrary\HeroGoKart\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABCDCC0-7D05-4A1D-8EEC-56219C1E20DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84C97C9-2963-431E-A813-AC8C2114CC1F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="761" yWindow="761" windowWidth="19562" windowHeight="10256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1182" yWindow="2527" windowWidth="19562" windowHeight="10256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,208 +88,209 @@
     <t>冰冻</t>
   </si>
   <si>
+    <t>goumai</t>
+  </si>
+  <si>
+    <t>购买道具成功时音效</t>
+  </si>
+  <si>
+    <t>保护罩</t>
+  </si>
+  <si>
+    <t>pickup_shield</t>
+  </si>
+  <si>
+    <t>huadong</t>
+  </si>
+  <si>
+    <t>按钮音效</t>
+  </si>
+  <si>
+    <t>加速卡</t>
+  </si>
+  <si>
+    <t>pickup_boost</t>
+  </si>
+  <si>
+    <t>idle</t>
+  </si>
+  <si>
+    <t>倒计时准备开始音效</t>
+  </si>
+  <si>
+    <t>吸铁石</t>
+  </si>
+  <si>
+    <t>pickup_magnet</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>触碰加速带音效</t>
+  </si>
+  <si>
+    <t>雷</t>
+  </si>
+  <si>
+    <t>lei</t>
+  </si>
+  <si>
+    <t>coin</t>
+  </si>
+  <si>
+    <t>触碰金币的音效（需要更换）</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>pickup_coin</t>
+  </si>
+  <si>
+    <t>gem</t>
+  </si>
+  <si>
+    <t>龙卷风</t>
+  </si>
+  <si>
+    <t>longjuanfeng</t>
+  </si>
+  <si>
+    <t>letter</t>
+  </si>
+  <si>
+    <t>加速带</t>
+  </si>
+  <si>
+    <t>magnet</t>
+  </si>
+  <si>
+    <t>吸铁石音效</t>
+  </si>
+  <si>
+    <t>传送门</t>
+  </si>
+  <si>
+    <t>chuansongmen</t>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>保护罩抵挡和结束时音效</t>
+  </si>
+  <si>
+    <t>油漆</t>
+  </si>
+  <si>
+    <t>surperise</t>
+  </si>
+  <si>
+    <t>触碰宝箱音效（道具的、和集装箱）</t>
+  </si>
+  <si>
+    <t>障碍物</t>
+  </si>
+  <si>
+    <t>zhangaiwu</t>
+  </si>
+  <si>
+    <t>qianbuzu</t>
+  </si>
+  <si>
+    <t>购买道具金币不足时音效</t>
+  </si>
+  <si>
+    <t>ticktack</t>
+  </si>
+  <si>
+    <t>定时炸弹</t>
+  </si>
+  <si>
+    <t>大石头</t>
+  </si>
+  <si>
+    <t>acc</t>
+  </si>
+  <si>
+    <t>超级加速卡（重新找）</t>
+  </si>
+  <si>
+    <t>石墩</t>
+  </si>
+  <si>
+    <t>shidun</t>
+  </si>
+  <si>
+    <t>grip</t>
+  </si>
+  <si>
+    <t>刹车音效</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>wancheng</t>
+  </si>
+  <si>
+    <t>完成音效</t>
+  </si>
+  <si>
+    <t>定时炸弹倒计时</t>
+  </si>
+  <si>
+    <t>定时炸弹爆炸</t>
+  </si>
+  <si>
+    <t>触碰水的音效</t>
+  </si>
+  <si>
+    <t>超级加速卡</t>
+  </si>
+  <si>
+    <t>xuanche</t>
+  </si>
+  <si>
+    <t>皮卡车</t>
+  </si>
+  <si>
+    <t>teshuche</t>
+  </si>
+  <si>
+    <t>（碰到任何物品全部用）</t>
+  </si>
+  <si>
+    <t>水泥车</t>
+  </si>
+  <si>
+    <t>压路车</t>
+  </si>
+  <si>
+    <t>结束后倒计时</t>
+  </si>
+  <si>
+    <t>daojishi1</t>
+  </si>
+  <si>
+    <t>开始倒计时</t>
+  </si>
+  <si>
+    <t>kaishi</t>
+  </si>
+  <si>
+    <t>出发音效（赛车）</t>
+  </si>
+  <si>
+    <t>当开始倒计时时，这个音效跟着响起</t>
+  </si>
+  <si>
     <t>bing</t>
-  </si>
-  <si>
-    <t>goumai</t>
-  </si>
-  <si>
-    <t>购买道具成功时音效</t>
-  </si>
-  <si>
-    <t>保护罩</t>
-  </si>
-  <si>
-    <t>pickup_shield</t>
-  </si>
-  <si>
-    <t>huadong</t>
-  </si>
-  <si>
-    <t>按钮音效</t>
-  </si>
-  <si>
-    <t>加速卡</t>
-  </si>
-  <si>
-    <t>pickup_boost</t>
-  </si>
-  <si>
-    <t>idle</t>
-  </si>
-  <si>
-    <t>倒计时准备开始音效</t>
-  </si>
-  <si>
-    <t>吸铁石</t>
-  </si>
-  <si>
-    <t>pickup_magnet</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>触碰加速带音效</t>
-  </si>
-  <si>
-    <t>雷</t>
-  </si>
-  <si>
-    <t>lei</t>
-  </si>
-  <si>
-    <t>coin</t>
-  </si>
-  <si>
-    <t>触碰金币的音效（需要更换）</t>
-  </si>
-  <si>
-    <t>金币</t>
-  </si>
-  <si>
-    <t>pickup_coin</t>
-  </si>
-  <si>
-    <t>gem</t>
-  </si>
-  <si>
-    <t>龙卷风</t>
-  </si>
-  <si>
-    <t>longjuanfeng</t>
-  </si>
-  <si>
-    <t>letter</t>
-  </si>
-  <si>
-    <t>加速带</t>
-  </si>
-  <si>
-    <t>magnet</t>
-  </si>
-  <si>
-    <t>吸铁石音效</t>
-  </si>
-  <si>
-    <t>传送门</t>
-  </si>
-  <si>
-    <t>chuansongmen</t>
-  </si>
-  <si>
-    <t>shield</t>
-  </si>
-  <si>
-    <t>保护罩抵挡和结束时音效</t>
-  </si>
-  <si>
-    <t>油漆</t>
-  </si>
-  <si>
-    <t>surperise</t>
-  </si>
-  <si>
-    <t>触碰宝箱音效（道具的、和集装箱）</t>
-  </si>
-  <si>
-    <t>障碍物</t>
-  </si>
-  <si>
-    <t>zhangaiwu</t>
-  </si>
-  <si>
-    <t>qianbuzu</t>
-  </si>
-  <si>
-    <t>购买道具金币不足时音效</t>
-  </si>
-  <si>
-    <t>ticktack</t>
-  </si>
-  <si>
-    <t>定时炸弹</t>
-  </si>
-  <si>
-    <t>大石头</t>
-  </si>
-  <si>
-    <t>acc</t>
-  </si>
-  <si>
-    <t>超级加速卡（重新找）</t>
-  </si>
-  <si>
-    <t>石墩</t>
-  </si>
-  <si>
-    <t>shidun</t>
-  </si>
-  <si>
-    <t>grip</t>
-  </si>
-  <si>
-    <t>刹车音效</t>
-  </si>
-  <si>
-    <t>水</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>wancheng</t>
-  </si>
-  <si>
-    <t>完成音效</t>
-  </si>
-  <si>
-    <t>定时炸弹倒计时</t>
-  </si>
-  <si>
-    <t>定时炸弹爆炸</t>
-  </si>
-  <si>
-    <t>触碰水的音效</t>
-  </si>
-  <si>
-    <t>超级加速卡</t>
-  </si>
-  <si>
-    <t>xuanche</t>
-  </si>
-  <si>
-    <t>皮卡车</t>
-  </si>
-  <si>
-    <t>teshuche</t>
-  </si>
-  <si>
-    <t>（碰到任何物品全部用）</t>
-  </si>
-  <si>
-    <t>水泥车</t>
-  </si>
-  <si>
-    <t>压路车</t>
-  </si>
-  <si>
-    <t>结束后倒计时</t>
-  </si>
-  <si>
-    <t>daojishi1</t>
-  </si>
-  <si>
-    <t>开始倒计时</t>
-  </si>
-  <si>
-    <t>kaishi</t>
-  </si>
-  <si>
-    <t>出发音效（赛车）</t>
-  </si>
-  <si>
-    <t>当开始倒计时时，这个音效跟着响起</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -725,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
@@ -827,124 +828,124 @@
         <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
         <v>46</v>
       </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
         <v>48</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>49</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
         <v>52</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -952,86 +953,86 @@
     </row>
     <row r="17" spans="1:6" ht="25.85" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" t="s">
         <v>56</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
         <v>59</v>
       </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
       <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
         <v>61</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>62</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
         <v>64</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>65</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
         <v>68</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>69</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>70</v>
-      </c>
-      <c r="D21" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
         <v>72</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>73</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" t="s">
         <v>74</v>
-      </c>
-      <c r="D22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" t="s">
-        <v>75</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
@@ -1039,77 +1040,77 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
         <v>76</v>
       </c>
-      <c r="C23" t="s">
-        <v>77</v>
-      </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
         <v>78</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>79</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>80</v>
       </c>
-      <c r="E24" t="s">
-        <v>81</v>
-      </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" t="s">
         <v>80</v>
       </c>
-      <c r="E25" t="s">
-        <v>81</v>
-      </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" t="s">
         <v>80</v>
       </c>
-      <c r="E26" t="s">
-        <v>81</v>
-      </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -1130,42 +1131,42 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1173,10 +1174,10 @@
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
